--- a/results/2080Ti/GraphInsert.xlsx
+++ b/results/2080Ti/GraphInsert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\GPUMemManSurvey\results\2080Ti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45181D7E-2CD1-4ED8-BDC7-4E1B598F66E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BEEEA4-9C9C-4474-AE9E-774753308E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Insert" sheetId="1" r:id="rId1"/>
@@ -216,12 +216,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,8 +238,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF996633"/>
       <color rgb="FF33CCCC"/>
-      <color rgb="FF996633"/>
       <color rgb="FF663300"/>
     </mruColors>
   </colors>
@@ -275,73 +276,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_Insert!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ouroGraph</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>adaptive</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>coAuthorsCite.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fe_body</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>rgg_n_2_20_s0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sc2010</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Data_Insert!$B$3,Data_Insert!$B$5,Data_Insert!$B$7,Data_Insert!$B$9,Data_Insert!$B$13:$B$14)</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-              <c:extLst/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43F0-42D5-A2A5-4CBB12E720C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -369,6 +303,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -391,11 +332,17 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$C$3:$C$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$C$3,Data_Insert!$C$5,Data_Insert!$C$7,Data_Insert!$C$9,Data_Insert!$C$13:$C$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -416,7 +363,6 @@
                   <c:v>19.845199999999998</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -453,6 +399,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -475,11 +428,17 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$D$3:$D$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$D$3,Data_Insert!$D$5,Data_Insert!$D$7,Data_Insert!$D$9,Data_Insert!$D$13:$D$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -503,7 +462,6 @@
                   <c:v>2.5064300000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -542,6 +500,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -564,11 +529,17 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$E$3:$E$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$E$3,Data_Insert!$E$5,Data_Insert!$E$7,Data_Insert!$E$9,Data_Insert!$E$13:$E$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -592,7 +563,6 @@
                   <c:v>0.100429</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -632,6 +602,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -654,20 +631,40 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$F$3:$F$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$F$3,Data_Insert!$F$5,Data_Insert!$F$7,Data_Insert!$F$9,Data_Insert!$F$13:$F$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.38809</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.18490799999999999</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.682064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.174487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9972300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0023299999999999</c:v>
+                </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -707,6 +704,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -729,20 +733,40 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$G$3:$G$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$G$3,Data_Insert!$G$5,Data_Insert!$G$7,Data_Insert!$G$9,Data_Insert!$G$13:$G$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2664200000000001</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.160999</c:v>
+                  <c:v>0.37314599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.555809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17372699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2114799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78505499999999995</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -781,6 +805,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -803,11 +834,17 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$H$3:$H$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$H$3,Data_Insert!$H$5,Data_Insert!$H$7,Data_Insert!$H$9,Data_Insert!$H$13:$H$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -831,7 +868,6 @@
                   <c:v>2.8632299999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -871,6 +907,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -893,11 +936,17 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$I$3:$I$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$I$3,Data_Insert!$I$5,Data_Insert!$I$7,Data_Insert!$I$9,Data_Insert!$I$13:$I$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -921,7 +970,6 @@
                   <c:v>3.7242600000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -961,6 +1009,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -983,11 +1038,17 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$J$3:$J$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$J$3,Data_Insert!$J$5,Data_Insert!$J$7,Data_Insert!$J$9,Data_Insert!$J$13:$J$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1011,7 +1072,6 @@
                   <c:v>3.7854400000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1036,18 +1096,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="996633"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -1070,20 +1137,40 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Data_Insert!#REF!,Data_Insert!#REF!,Data_Insert!#REF!,Data_Insert!#REF!,Data_Insert!#REF!)</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$L$3:$L$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Data_Insert!$L$3,Data_Insert!$L$5,Data_Insert!$L$7,Data_Insert!$L$9,Data_Insert!$L$13:$L$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.64621E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4348800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.99843E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3295400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.844E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4672299999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1108,9 +1195,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:srgbClr val="663300"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -1122,6 +1207,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -1144,20 +1236,22 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data_Insert!#REF!</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$M$3:$M$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Data_Insert!$M$3,Data_Insert!$M$5,Data_Insert!$M$7,Data_Insert!$M$9,Data_Insert!$M$13:$M$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
+                <c:ptCount val="6"/>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1197,6 +1291,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -1219,17 +1320,22 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$N$3:$N$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$N$3,Data_Insert!$N$5,Data_Insert!$N$7,Data_Insert!$N$9,Data_Insert!$N$13:$N$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1269,6 +1375,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -1291,17 +1404,22 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$O$3:$O$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$O$3,Data_Insert!$O$5,Data_Insert!$O$7,Data_Insert!$O$9,Data_Insert!$O$13:$O$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1326,21 +1444,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -1363,35 +1486,22 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Data_Insert!$Q$3,Data_Insert!$Q$5,Data_Insert!$Q$7,Data_Insert!$Q$9,Data_Insert!$Q$13:$Q$14)</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$P$3:$P$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Data_Insert!$P$3,Data_Insert!$P$5,Data_Insert!$P$7,Data_Insert!$P$9,Data_Insert!$P$13:$P$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.93936E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10909099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.05568E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2099800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5704E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2082600000000001E-2</c:v>
-                </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1416,19 +1526,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
+              <a:srgbClr val="33CCCC"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -1451,20 +1567,40 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Data_Insert!#REF!,Data_Insert!#REF!,Data_Insert!#REF!,Data_Insert!#REF!,Data_Insert!#REF!)</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$Q$3:$Q$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Data_Insert!$Q$3,Data_Insert!$Q$5,Data_Insert!$Q$7,Data_Insert!$Q$9,Data_Insert!$Q$13:$Q$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.93936E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10909099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.05568E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2099800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5704E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2082600000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1503,6 +1639,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -1525,17 +1668,22 @@
                   <c:v>sc2010</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert!$R$3:$R$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>(Data_Insert!$R$3,Data_Insert!$R$5,Data_Insert!$R$7,Data_Insert!$R$9,Data_Insert!$R$13:$R$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1560,33 +1708,31 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Data_Insert!$K$2</c15:sqref>
+                          <c15:sqref>Data_Insert!$B$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>RegEff-A</c:v>
+                        <c:v>ouroGraph</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:srgbClr val="663300"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:ln>
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
@@ -1595,6 +1741,9 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
                           <c15:sqref>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c15:sqref>
                         </c15:formulaRef>
@@ -1627,8 +1776,104 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Data_Insert!$B$3:$B$15</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Data_Insert!$M$3,Data_Insert!$M$5,Data_Insert!$M$7,Data_Insert!$M$9,Data_Insert!$M$13:$M$14)</c15:sqref>
+                          <c15:sqref>(Data_Insert!$B$3,Data_Insert!$B$5,Data_Insert!$B$7,Data_Insert!$B$9,Data_Insert!$B$13:$B$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-43F0-42D5-A2A5-4CBB12E720C5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data_Insert!$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>RegEff-A</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Data_Insert!$A$3:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Data_Insert!$A$3,Data_Insert!$A$5,Data_Insert!$A$7,Data_Insert!$A$9,Data_Insert!$A$13:$A$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>adaptive</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>coAuthorsCite.</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fe_body</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>rgg_n_2_20_s0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>sc2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Data_Insert!$K$3:$K$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Data_Insert!$K$3,Data_Insert!$K$5,Data_Insert!$K$7,Data_Insert!$K$9,Data_Insert!$K$13:$K$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1638,7 +1883,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-43F0-42D5-A2A5-4CBB12E720C5}"/>
                   </c:ext>
@@ -1704,7 +1949,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="7800"/>
+          <c:max val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1777,7 +2022,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1881,85 +2126,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_Delete!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ouroGraph</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Delete!$A$3:$A$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Data_Delete!$A$3,Data_Delete!$A$5,Data_Delete!$A$7,Data_Delete!$A$9,Data_Delete!$A$13:$A$14)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>adaptive</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>coAuthorsCite.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fe_body</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>rgg_n_2_20_s0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sc2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Delete!$B$3:$B$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Data_Delete!$B$3,Data_Delete!$B$5,Data_Delete!$B$7,Data_Delete!$B$9,Data_Delete!$B$13:$B$14)</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B4C-47E3-AB7B-F3181352BDDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -2330,8 +2496,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.75037</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>7.7546900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51640799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.231595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2503200000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58892100000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,8 +2598,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3728100000000001</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8905399999999997</c:v>
+                  <c:v>106.758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33924199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25583099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3899600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35167599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2750,12 +2946,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="996633"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2776,40 +2972,19 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>333SP</c:v>
+                  <c:v>adaptive</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>adaptive</c:v>
+                  <c:v>coAuthorsCite.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>caidaRouterLevel</c:v>
+                  <c:v>fe_body</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>coAuthorsCite.</c:v>
+                  <c:v>rgg_n_2_20_s0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>delaunay_n20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fe_body</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>hugetric-00000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>in2010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>luxembourg_osm</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>rgg_n_2_20_s0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>sc2010</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>vsp_mod2_pgp2_slptsk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2819,16 +2994,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data_Delete!#REF!</c15:sqref>
+                    <c15:sqref>Data_Delete!$L$3:$L$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data_Delete!#REF!</c:f>
+              <c:f>(Data_Delete!$L$3,Data_Delete!$L$5,Data_Delete!$L$7,Data_Delete!$L$9,Data_Delete!$L$13:$L$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2173100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3008999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8897300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9865600000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1190400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.43187E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,109 +3296,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Delete!$A$3:$A$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Data_Delete!$A$3,Data_Delete!$A$5,Data_Delete!$A$7,Data_Delete!$A$9,Data_Delete!$A$13:$A$14)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>adaptive</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>coAuthorsCite.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fe_body</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>rgg_n_2_20_s0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sc2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Delete!$Q$3:$Q$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Data_Delete!$Q$3,Data_Delete!$Q$5,Data_Delete!$Q$7,Data_Delete!$Q$9,Data_Delete!$Q$13:$Q$14)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.96861E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.152618</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1634900000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.41142E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7778599999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.57667E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-8B4C-47E3-AB7B-F3181352BDDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_Delete!$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
+              <a:schemeClr val="accent3">
                 <a:lumMod val="80000"/>
                 <a:lumOff val="20000"/>
               </a:schemeClr>
@@ -3235,40 +3323,19 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>333SP</c:v>
+                  <c:v>adaptive</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>adaptive</c:v>
+                  <c:v>coAuthorsCite.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>caidaRouterLevel</c:v>
+                  <c:v>fe_body</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>coAuthorsCite.</c:v>
+                  <c:v>rgg_n_2_20_s0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>delaunay_n20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fe_body</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>hugetric-00000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>in2010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>luxembourg_osm</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>rgg_n_2_20_s0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>sc2010</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>vsp_mod2_pgp2_slptsk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3278,16 +3345,112 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data_Delete!#REF!</c15:sqref>
+                    <c15:sqref>Data_Delete!$P$3:$P$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data_Delete!#REF!</c:f>
+              <c:f>(Data_Delete!$P$3,Data_Delete!$P$5,Data_Delete!$P$7,Data_Delete!$P$9,Data_Delete!$P$13:$P$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-8B4C-47E3-AB7B-F3181352BDDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_Delete!$Q$2</c:f>
+              <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="33CCCC"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Delete!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Data_Delete!$A$3,Data_Delete!$A$5,Data_Delete!$A$7,Data_Delete!$A$9,Data_Delete!$A$13:$A$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>adaptive</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>coAuthorsCite.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fe_body</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rgg_n_2_20_s0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sc2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Delete!$Q$3:$Q$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Data_Delete!$Q$3,Data_Delete!$Q$5,Data_Delete!$Q$7,Data_Delete!$Q$9,Data_Delete!$Q$13:$Q$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.96861E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.152618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1634900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.41142E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7778599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.57667E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3397,33 +3560,31 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Data_Delete!$K$2</c15:sqref>
+                          <c15:sqref>Data_Delete!$B$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>RegEff-A</c:v>
+                        <c:v>ouroGraph</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:srgbClr val="663300"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:ln>
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
@@ -3468,38 +3629,113 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data_Delete!$L$3:$L$15</c15:sqref>
+                          <c15:sqref>Data_Delete!$B$3:$B$15</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Data_Delete!$L$3,Data_Delete!$L$5,Data_Delete!$L$7,Data_Delete!$L$9,Data_Delete!$L$13:$L$14)</c15:sqref>
+                          <c15:sqref>(Data_Delete!$B$3,Data_Delete!$B$5,Data_Delete!$B$7,Data_Delete!$B$9,Data_Delete!$B$13:$B$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8B4C-47E3-AB7B-F3181352BDDF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data_Delete!$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>RegEff-A</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Data_Delete!$A$3:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Data_Delete!$A$3,Data_Delete!$A$5,Data_Delete!$A$7,Data_Delete!$A$9,Data_Delete!$A$13:$A$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>adaptive</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>coAuthorsCite.</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fe_body</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>rgg_n_2_20_s0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>sc2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Data_Delete!$K$3:$K$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Data_Delete!$K$3,Data_Delete!$K$5,Data_Delete!$K$7,Data_Delete!$K$9,Data_Delete!$K$13:$K$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>2.2173100000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>8.3008999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.8897300000000003E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>9.9865600000000002E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.1190400000000002E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.43187E-2</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-8B4C-47E3-AB7B-F3181352BDDF}"/>
                   </c:ext>
@@ -3565,7 +3801,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="7800"/>
+          <c:max val="600"/>
+          <c:min val="1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3638,7 +3875,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3742,85 +3979,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_Insert_Range!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ouroGraph</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Insert_Range!$A$3:$A$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Data_Insert_Range!$A$3,Data_Insert_Range!$A$5,Data_Insert_Range!$A$7,Data_Insert_Range!$A$9,Data_Insert_Range!$A$13:$A$14)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>adaptive</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>coAuthorsCite.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fe_body</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>rgg_n_2_20_s0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sc2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Insert_Range!$B$3:$B$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Data_Insert_Range!$B$3,Data_Insert_Range!$B$5,Data_Insert_Range!$B$7,Data_Insert_Range!$B$9,Data_Insert_Range!$B$13:$B$14)</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-832D-430E-923F-D2C8448F6B7C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -4200,6 +4358,12 @@
                 <c:pt idx="1">
                   <c:v>0.11301</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.96075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57302399999999998</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.20799300000000001</c:v>
                 </c:pt>
@@ -4290,14 +4454,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.85212900000000003</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6552899999999997E-2</c:v>
+                  <c:v>0.109471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.23603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7377900000000003E-2</c:v>
+                  <c:v>0.478796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8931200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.101711</c:v>
+                  <c:v>0.82041699999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4677,14 +4850,32 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data_Insert_Range!$M$3:$M$15</c15:sqref>
+                    <c15:sqref>Data_Insert_Range!$L$3:$L$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data_Insert_Range!$M$3,Data_Insert_Range!$M$5,Data_Insert_Range!$M$7,Data_Insert_Range!$M$9,Data_Insert_Range!$M$13:$M$14)</c:f>
+              <c:f>(Data_Insert_Range!$L$3,Data_Insert_Range!$L$5,Data_Insert_Range!$L$7,Data_Insert_Range!$L$9,Data_Insert_Range!$L$13:$L$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2972800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4094399999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.78982E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7023699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1466599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6732799999999999E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4704,6 +4895,87 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>RegEff - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="996633"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert_Range!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Data_Insert_Range!$A$3,Data_Insert_Range!$A$5,Data_Insert_Range!$A$7,Data_Insert_Range!$A$9,Data_Insert_Range!$A$13:$A$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>adaptive</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>coAuthorsCite.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fe_body</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rgg_n_2_20_s0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sc2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Insert_Range!$M$3:$M$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Data_Insert_Range!$M$3,Data_Insert_Range!$M$5,Data_Insert_Range!$M$7,Data_Insert_Range!$M$9,Data_Insert_Range!$M$13:$M$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-832D-430E-923F-D2C8448F6B7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_Insert_Range!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RegEff - CF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4773,20 +5045,20 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-832D-430E-923F-D2C8448F6B7C}"/>
+              <c16:uniqueId val="{0000000C-832D-430E-923F-D2C8448F6B7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:idx val="13"/>
+          <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_Insert_Range!$N$2</c:f>
+              <c:f>Data_Insert_Range!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RegEff - CF</c:v>
+                  <c:v>RegEff - CFM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4857,20 +5129,20 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-832D-430E-923F-D2C8448F6B7C}"/>
+              <c16:uniqueId val="{0000000D-832D-430E-923F-D2C8448F6B7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
+          <c:idx val="14"/>
+          <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_Insert_Range!$O$2</c:f>
+              <c:f>Data_Insert_Range!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RegEff - CFM</c:v>
+                  <c:v>RegEff - CM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4941,30 +5213,27 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-832D-430E-923F-D2C8448F6B7C}"/>
+              <c16:uniqueId val="{0000000E-832D-430E-923F-D2C8448F6B7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
+          <c:idx val="15"/>
+          <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_Insert_Range!$P$2</c:f>
+              <c:f>Data_Insert_Range!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RegEff - CM</c:v>
+                  <c:v>ScatterAlloc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
+              <a:srgbClr val="33CCCC"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -5037,112 +5306,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.46544E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-832D-430E-923F-D2C8448F6B7C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_Insert_Range!$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Insert_Range!$A$3:$A$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Data_Insert_Range!$A$3,Data_Insert_Range!$A$5,Data_Insert_Range!$A$7,Data_Insert_Range!$A$9,Data_Insert_Range!$A$13:$A$14)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>333SP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>adaptive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>caidaRouterLevel</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>coAuthorsCite.</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>delaunay_n20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fe_body</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>hugetric-00000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>in2010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>luxembourg_osm</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>rgg_n_2_20_s0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>sc2010</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>vsp_mod2_pgp2_slptsk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Insert_Range!#REF!</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Data_Insert_Range!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5252,33 +5415,31 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Data_Insert_Range!$K$2</c15:sqref>
+                          <c15:sqref>Data_Insert_Range!$B$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>RegEff-A</c:v>
+                        <c:v>ouroGraph</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:srgbClr val="663300"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:ln>
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
@@ -5323,38 +5484,113 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data_Insert_Range!$L$3:$L$15</c15:sqref>
+                          <c15:sqref>Data_Insert_Range!$B$3:$B$15</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Data_Insert_Range!$L$3,Data_Insert_Range!$L$5,Data_Insert_Range!$L$7,Data_Insert_Range!$L$9,Data_Insert_Range!$L$13:$L$14)</c15:sqref>
+                          <c15:sqref>(Data_Insert_Range!$B$3,Data_Insert_Range!$B$5,Data_Insert_Range!$B$7,Data_Insert_Range!$B$9,Data_Insert_Range!$B$13:$B$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-832D-430E-923F-D2C8448F6B7C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data_Insert_Range!$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>RegEff-A</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Data_Insert_Range!$A$3:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Data_Insert_Range!$A$3,Data_Insert_Range!$A$5,Data_Insert_Range!$A$7,Data_Insert_Range!$A$9,Data_Insert_Range!$A$13:$A$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>adaptive</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>coAuthorsCite.</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fe_body</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>rgg_n_2_20_s0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>sc2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Data_Insert_Range!$K$3:$K$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Data_Insert_Range!$K$3,Data_Insert_Range!$K$5,Data_Insert_Range!$K$7,Data_Insert_Range!$K$9,Data_Insert_Range!$K$13:$K$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>2.2972800000000002E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6.4094399999999996E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1.78982E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1.7023699999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2.1466599999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.6732799999999999E-2</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-832D-430E-923F-D2C8448F6B7C}"/>
                   </c:ext>
@@ -5420,7 +5656,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="3000"/>
+          <c:max val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5493,7 +5729,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5597,85 +5833,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_Delete_Range!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ouroGraph</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Delete_Range!$A$3:$A$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Data_Delete_Range!$A$3,Data_Delete_Range!$A$5,Data_Delete_Range!$A$7,Data_Delete_Range!$A$9,Data_Delete_Range!$A$13:$A$14)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>adaptive</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>coAuthorsCite.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fe_body</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>rgg_n_2_20_s0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sc2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Delete_Range!$B$3:$B$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Data_Delete_Range!$B$3,Data_Delete_Range!$B$5,Data_Delete_Range!$B$7,Data_Delete_Range!$B$9,Data_Delete_Range!$B$13:$B$14)</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC38-4D7F-BE01-D270D57CB15A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -6055,6 +6212,12 @@
                 <c:pt idx="1">
                   <c:v>8.8864899999999997E-2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77049100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.498805</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.134659</c:v>
                 </c:pt>
@@ -6145,14 +6308,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.66184500000000002</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1995200000000004E-2</c:v>
+                  <c:v>5.8668300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3807400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3483799999999997E-2</c:v>
+                  <c:v>0.23646300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1572300000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8496299999999996E-2</c:v>
+                  <c:v>0.92872900000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6532,14 +6704,32 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data_Delete_Range!$M$3:$M$15</c15:sqref>
+                    <c15:sqref>Data_Delete_Range!$L$3:$L$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data_Delete_Range!$M$3,Data_Delete_Range!$M$5,Data_Delete_Range!$M$7,Data_Delete_Range!$M$9,Data_Delete_Range!$M$13:$M$14)</c:f>
+              <c:f>(Data_Delete_Range!$L$3,Data_Delete_Range!$L$5,Data_Delete_Range!$L$7,Data_Delete_Range!$L$9,Data_Delete_Range!$L$13:$L$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5271399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8831000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6023299999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.36464E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8577599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6361600000000001E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6559,6 +6749,87 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>RegEff - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="996633"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Delete_Range!$A$3:$A$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Data_Delete_Range!$A$3,Data_Delete_Range!$A$5,Data_Delete_Range!$A$7,Data_Delete_Range!$A$9,Data_Delete_Range!$A$13:$A$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>adaptive</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>coAuthorsCite.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fe_body</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rgg_n_2_20_s0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sc2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data_Delete_Range!$M$3:$M$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Data_Delete_Range!$M$3,Data_Delete_Range!$M$5,Data_Delete_Range!$M$7,Data_Delete_Range!$M$9,Data_Delete_Range!$M$13:$M$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-AC38-4D7F-BE01-D270D57CB15A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_Delete_Range!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RegEff - CF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6628,20 +6899,20 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-AC38-4D7F-BE01-D270D57CB15A}"/>
+              <c16:uniqueId val="{0000000C-AC38-4D7F-BE01-D270D57CB15A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:idx val="13"/>
+          <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_Delete_Range!$N$2</c:f>
+              <c:f>Data_Delete_Range!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RegEff - CF</c:v>
+                  <c:v>RegEff - CFM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6712,20 +6983,20 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-AC38-4D7F-BE01-D270D57CB15A}"/>
+              <c16:uniqueId val="{0000000D-AC38-4D7F-BE01-D270D57CB15A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
+          <c:idx val="14"/>
+          <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_Delete_Range!$O$2</c:f>
+              <c:f>Data_Delete_Range!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RegEff - CFM</c:v>
+                  <c:v>RegEff - CM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6796,30 +7067,27 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-AC38-4D7F-BE01-D270D57CB15A}"/>
+              <c16:uniqueId val="{0000000E-AC38-4D7F-BE01-D270D57CB15A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
+          <c:idx val="15"/>
+          <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_Delete_Range!$P$2</c:f>
+              <c:f>Data_Delete_Range!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RegEff - CM</c:v>
+                  <c:v>ScatterAlloc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
+              <a:srgbClr val="33CCCC"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -6892,112 +7160,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.9807700000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-AC38-4D7F-BE01-D270D57CB15A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_Delete_Range!$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Delete_Range!$A$3:$A$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Data_Delete_Range!$A$3,Data_Delete_Range!$A$5,Data_Delete_Range!$A$7,Data_Delete_Range!$A$9,Data_Delete_Range!$A$13:$A$14)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>333SP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>adaptive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>caidaRouterLevel</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>coAuthorsCite.</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>delaunay_n20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fe_body</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>hugetric-00000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>in2010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>luxembourg_osm</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>rgg_n_2_20_s0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>sc2010</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>vsp_mod2_pgp2_slptsk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Data_Delete_Range!#REF!</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Data_Delete_Range!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7107,33 +7269,31 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Data_Delete_Range!$K$2</c15:sqref>
+                          <c15:sqref>Data_Delete_Range!$B$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>RegEff-A</c:v>
+                        <c:v>ouroGraph</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:srgbClr val="663300"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:ln>
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
@@ -7178,38 +7338,113 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data_Delete_Range!$L$3:$L$15</c15:sqref>
+                          <c15:sqref>Data_Delete_Range!$B$3:$B$15</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Data_Delete_Range!$L$3,Data_Delete_Range!$L$5,Data_Delete_Range!$L$7,Data_Delete_Range!$L$9,Data_Delete_Range!$L$13:$L$14)</c15:sqref>
+                          <c15:sqref>(Data_Delete_Range!$B$3,Data_Delete_Range!$B$5,Data_Delete_Range!$B$7,Data_Delete_Range!$B$9,Data_Delete_Range!$B$13:$B$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-AC38-4D7F-BE01-D270D57CB15A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data_Delete_Range!$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>RegEff-A</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Data_Delete_Range!$A$3:$A$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Data_Delete_Range!$A$3,Data_Delete_Range!$A$5,Data_Delete_Range!$A$7,Data_Delete_Range!$A$9,Data_Delete_Range!$A$13:$A$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>adaptive</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>coAuthorsCite.</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>fe_body</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>rgg_n_2_20_s0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>sc2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Data_Delete_Range!$K$3:$K$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Data_Delete_Range!$K$3,Data_Delete_Range!$K$5,Data_Delete_Range!$K$7,Data_Delete_Range!$K$9,Data_Delete_Range!$K$13:$K$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>5.5271399999999998E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5.8831000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>6.6023299999999993E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.36464E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.8577599999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3.6361600000000001E-2</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-AC38-4D7F-BE01-D270D57CB15A}"/>
                   </c:ext>
@@ -7264,7 +7499,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="455907040"/>
-        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7275,7 +7510,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="3000"/>
+          <c:max val="600"/>
+          <c:min val="1.0000000000000002E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7348,7 +7584,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9606,7 +9842,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7B9C8B1E-FFBD-4346-B249-F623197CBEA8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -9630,10 +9866,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C1FD20D0-DC95-4EE6-8832-C861F6AED322}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="157" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -9720,7 +9956,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="14268450" cy="7096125"/>
+    <xdr:ext cx="12677775" cy="7667625"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10048,7 +10284,7 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="G3" sqref="G3:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10072,25 +10308,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -10159,8 +10395,12 @@
       <c r="E3" s="5">
         <v>4.6141799999999997E-2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="6">
+        <v>1.38809</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.2664200000000001</v>
+      </c>
       <c r="H3" s="5">
         <v>2.31722E-2</v>
       </c>
@@ -10195,10 +10435,12 @@
       <c r="E4" s="5">
         <v>0.12537200000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0.18459100000000001</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6">
+        <v>3.8583799999999999</v>
+      </c>
       <c r="H4" s="5">
         <v>5.8486999999999997E-2</v>
       </c>
@@ -10231,11 +10473,11 @@
       <c r="E5" s="5">
         <v>0.171678</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>0.18490799999999999</v>
       </c>
-      <c r="G5" s="5">
-        <v>0.160999</v>
+      <c r="G5" s="6">
+        <v>0.37314599999999998</v>
       </c>
       <c r="H5" s="5">
         <v>0.118714</v>
@@ -10271,8 +10513,12 @@
       <c r="E6" s="5">
         <v>6.9629399999999994E-2</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="6">
+        <v>0.84401899999999996</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.64002800000000004</v>
+      </c>
       <c r="H6" s="5">
         <v>2.07344E-2</v>
       </c>
@@ -10307,8 +10553,12 @@
       <c r="E7" s="5">
         <v>8.1935999999999995E-2</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="6">
+        <v>0.682064</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.555809</v>
+      </c>
       <c r="H7" s="5">
         <v>2.2810899999999999E-2</v>
       </c>
@@ -10343,10 +10593,12 @@
       <c r="E8" s="5">
         <v>0.54610999999999998</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>0.85940799999999995</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="6">
+        <v>3.17116</v>
+      </c>
       <c r="H8" s="5">
         <v>3.6872599999999998E-2</v>
       </c>
@@ -10381,8 +10633,12 @@
       <c r="E9" s="5">
         <v>9.2918399999999998E-2</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="6">
+        <v>0.174487</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.17372699999999999</v>
+      </c>
       <c r="H9" s="5">
         <v>2.5622099999999998E-2</v>
       </c>
@@ -10417,10 +10673,12 @@
       <c r="E10" s="5">
         <v>7.9721299999999995E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>7.5914899999999993E-2</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="6">
+        <v>7.5027200000000002E-2</v>
+      </c>
       <c r="H10" s="5">
         <v>7.3671700000000007E-2</v>
       </c>
@@ -10455,8 +10713,12 @@
       <c r="E11" s="5">
         <v>0.15024000000000001</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="6">
+        <v>1.60199</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.4826900000000001</v>
+      </c>
       <c r="H11" s="5">
         <v>3.3575399999999998E-2</v>
       </c>
@@ -10491,10 +10753,12 @@
       <c r="E12" s="5">
         <v>1.89462E-2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>2.1777000000000001E-2</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="6">
+        <v>1.8977899999999999E-2</v>
+      </c>
       <c r="H12" s="5">
         <v>1.4033E-2</v>
       </c>
@@ -10529,8 +10793,12 @@
       <c r="E13" s="5">
         <v>0.216307</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="6">
+        <v>5.9972300000000001</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5.2114799999999999</v>
+      </c>
       <c r="H13" s="5">
         <v>3.5700500000000003E-2</v>
       </c>
@@ -10565,8 +10833,12 @@
       <c r="E14" s="5">
         <v>0.100429</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="6">
+        <v>1.0023299999999999</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.78505499999999995</v>
+      </c>
       <c r="H14" s="5">
         <v>2.8632299999999999E-2</v>
       </c>
@@ -10601,8 +10873,12 @@
       <c r="E15" s="5">
         <v>6.6895700000000002E-2</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="6">
+        <v>0.37996600000000003</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.355126</v>
+      </c>
       <c r="H15" s="5">
         <v>2.4207699999999999E-2</v>
       </c>
@@ -10624,80 +10900,80 @@
       <c r="R15" s="4"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
@@ -10733,7 +11009,7 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G3" sqref="G3:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10757,25 +11033,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -10844,8 +11120,12 @@
       <c r="E3" s="5">
         <v>0.36436600000000002</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="6">
+        <v>1.75037</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.3728100000000001</v>
+      </c>
       <c r="H3" s="5">
         <v>2.0064599999999998E-2</v>
       </c>
@@ -10880,10 +11160,12 @@
       <c r="E4" s="5">
         <v>0.21412200000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0.31882500000000003</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6">
+        <v>13.1038</v>
+      </c>
       <c r="H4" s="5">
         <v>6.0618900000000003E-2</v>
       </c>
@@ -10916,11 +11198,11 @@
       <c r="E5" s="5">
         <v>5.2006300000000003</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>7.7546900000000001</v>
       </c>
-      <c r="G5" s="5">
-        <v>6.8905399999999997</v>
+      <c r="G5" s="6">
+        <v>106.758</v>
       </c>
       <c r="H5" s="5">
         <v>0.10809199999999999</v>
@@ -10956,8 +11238,12 @@
       <c r="E6" s="5">
         <v>9.9614400000000006E-2</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="6">
+        <v>0.39948899999999998</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.29983599999999999</v>
+      </c>
       <c r="H6" s="5">
         <v>7.4974100000000002E-2</v>
       </c>
@@ -10992,8 +11278,12 @@
       <c r="E7" s="5">
         <v>0.116315</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="6">
+        <v>0.51640799999999998</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.33924199999999999</v>
+      </c>
       <c r="H7" s="5">
         <v>4.0209599999999998E-2</v>
       </c>
@@ -11028,10 +11318,12 @@
       <c r="E8" s="5">
         <v>0.48509200000000002</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>0.74773999999999996</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="6">
+        <v>3.1437599999999999</v>
+      </c>
       <c r="H8" s="5">
         <v>3.9024299999999998E-2</v>
       </c>
@@ -11066,8 +11358,12 @@
       <c r="E9" s="5">
         <v>0.102815</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="6">
+        <v>0.231595</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.25583099999999998</v>
+      </c>
       <c r="H9" s="5">
         <v>1.6904300000000001E-2</v>
       </c>
@@ -11102,10 +11398,12 @@
       <c r="E10" s="5">
         <v>7.5103699999999995E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>8.2682900000000004E-2</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="6">
+        <v>0.13642899999999999</v>
+      </c>
       <c r="H10" s="5">
         <v>7.4194899999999994E-2</v>
       </c>
@@ -11140,8 +11438,12 @@
       <c r="E11" s="5">
         <v>0.24926699999999999</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="6">
+        <v>0.71813400000000005</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.53584500000000002</v>
+      </c>
       <c r="H11" s="5">
         <v>3.0784300000000001E-2</v>
       </c>
@@ -11176,10 +11478,12 @@
       <c r="E12" s="5">
         <v>5.0805799999999998E-2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>7.7983399999999994E-2</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="6">
+        <v>0.458285</v>
+      </c>
       <c r="H12" s="5">
         <v>8.9622399999999998E-3</v>
       </c>
@@ -11214,8 +11518,12 @@
       <c r="E13" s="5">
         <v>0.51228300000000004</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="6">
+        <v>6.2503200000000003</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5.3899600000000003</v>
+      </c>
       <c r="H13" s="5">
         <v>4.5288599999999998E-2</v>
       </c>
@@ -11250,8 +11558,12 @@
       <c r="E14" s="5">
         <v>0.122251</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="6">
+        <v>0.58892100000000003</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.35167599999999999</v>
+      </c>
       <c r="H14" s="5">
         <v>2.7530900000000001E-2</v>
       </c>
@@ -11286,8 +11598,12 @@
       <c r="E15" s="5">
         <v>0.114138</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="6">
+        <v>0.292794</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.31611400000000001</v>
+      </c>
       <c r="H15" s="5">
         <v>0.10520699999999999</v>
       </c>
@@ -11309,80 +11625,80 @@
       <c r="R15" s="4"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
@@ -11410,7 +11726,7 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G3" sqref="G3:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11434,25 +11750,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -11521,10 +11837,12 @@
       <c r="E3" s="5">
         <v>0.16858999999999999</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>0.17203299999999999</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="6">
+        <v>0.85212900000000003</v>
+      </c>
       <c r="H3" s="5">
         <v>2.4032299999999999E-2</v>
       </c>
@@ -11560,11 +11878,11 @@
       <c r="E4" s="5">
         <v>9.0573399999999998E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0.116022</v>
       </c>
-      <c r="G4" s="5">
-        <v>9.6331799999999995E-2</v>
+      <c r="G4" s="6">
+        <v>0.80734899999999998</v>
       </c>
       <c r="H4" s="5">
         <v>4.3910699999999997E-2</v>
@@ -11601,11 +11919,11 @@
       <c r="E5" s="5">
         <v>8.8223399999999993E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>0.11301</v>
       </c>
-      <c r="G5" s="5">
-        <v>9.6552899999999997E-2</v>
+      <c r="G5" s="6">
+        <v>0.109471</v>
       </c>
       <c r="H5" s="5">
         <v>6.5444500000000003E-2</v>
@@ -11642,8 +11960,12 @@
       <c r="E6" s="5">
         <v>9.5899200000000004E-2</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="6">
+        <v>1.9177999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.6734399999999998</v>
+      </c>
       <c r="H6" s="5">
         <v>2.6551700000000001E-2</v>
       </c>
@@ -11679,8 +12001,12 @@
       <c r="E7" s="5">
         <v>9.8239999999999994E-2</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="6">
+        <v>1.96075</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.23603</v>
+      </c>
       <c r="H7" s="5">
         <v>2.52538E-2</v>
       </c>
@@ -11716,8 +12042,12 @@
       <c r="E8" s="5">
         <v>0.114397</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="6">
+        <v>0.69409500000000002</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.33934199999999998</v>
+      </c>
       <c r="H8" s="5">
         <v>2.85504E-2</v>
       </c>
@@ -11753,9 +12083,11 @@
       <c r="E9" s="5">
         <v>8.8248300000000002E-2</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>9.7377900000000003E-2</v>
+      <c r="F9" s="6">
+        <v>0.57302399999999998</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.478796</v>
       </c>
       <c r="H9" s="5">
         <v>2.30163E-2</v>
@@ -11792,11 +12124,11 @@
       <c r="E10" s="5">
         <v>8.7294700000000003E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>0.110917</v>
       </c>
-      <c r="G10" s="5">
-        <v>9.46544E-2</v>
+      <c r="G10" s="6">
+        <v>0.12893499999999999</v>
       </c>
       <c r="H10" s="5">
         <v>5.8026899999999999E-2</v>
@@ -11833,11 +12165,11 @@
       <c r="E11" s="5">
         <v>0.1014</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>0.13043199999999999</v>
       </c>
-      <c r="G11" s="5">
-        <v>0.103729</v>
+      <c r="G11" s="6">
+        <v>0.96390299999999995</v>
       </c>
       <c r="H11" s="5">
         <v>2.3304999999999999E-2</v>
@@ -11874,11 +12206,11 @@
       <c r="E12" s="5">
         <v>6.05722E-2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>7.5174099999999994E-2</v>
       </c>
-      <c r="G12" s="5">
-        <v>6.2001899999999999E-2</v>
+      <c r="G12" s="6">
+        <v>8.0076800000000004E-2</v>
       </c>
       <c r="H12" s="5">
         <v>2.1979499999999999E-2</v>
@@ -11915,10 +12247,12 @@
       <c r="E13" s="5">
         <v>0.15518699999999999</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>0.20799300000000001</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="6">
+        <v>2.8931200000000001</v>
+      </c>
       <c r="H13" s="5">
         <v>3.0385599999999999E-2</v>
       </c>
@@ -11954,11 +12288,11 @@
       <c r="E14" s="5">
         <v>9.4474600000000006E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>0.12590199999999999</v>
       </c>
-      <c r="G14" s="5">
-        <v>0.101711</v>
+      <c r="G14" s="6">
+        <v>0.82041699999999995</v>
       </c>
       <c r="H14" s="5">
         <v>2.648E-2</v>
@@ -11995,8 +12329,12 @@
       <c r="E15" s="5">
         <v>9.4459500000000002E-2</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="6">
+        <v>0.67747400000000002</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.77985300000000002</v>
+      </c>
       <c r="H15" s="5">
         <v>2.3949100000000001E-2</v>
       </c>
@@ -12019,80 +12357,80 @@
       <c r="R15" s="4"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
@@ -12127,8 +12465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1F1050-A675-47A4-A598-0E9195DD0B81}">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12152,25 +12490,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -12239,10 +12577,12 @@
       <c r="E3" s="5">
         <v>0.12223100000000001</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>0.112622</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="6">
+        <v>0.66184500000000002</v>
+      </c>
       <c r="H3" s="5">
         <v>4.25443E-2</v>
       </c>
@@ -12278,11 +12618,11 @@
       <c r="E4" s="5">
         <v>8.84413E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0.105584</v>
       </c>
-      <c r="G4" s="5">
-        <v>9.4317799999999993E-2</v>
+      <c r="G4" s="6">
+        <v>4.8067399999999996</v>
       </c>
       <c r="H4" s="5">
         <v>5.0409000000000002E-2</v>
@@ -12319,11 +12659,11 @@
       <c r="E5" s="5">
         <v>7.5737899999999997E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>8.8864899999999997E-2</v>
       </c>
-      <c r="G5" s="5">
-        <v>8.1995200000000004E-2</v>
+      <c r="G5" s="6">
+        <v>5.8668300000000002</v>
       </c>
       <c r="H5" s="5">
         <v>5.9527999999999998E-2</v>
@@ -12360,8 +12700,12 @@
       <c r="E6" s="5">
         <v>0.10101599999999999</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="6">
+        <v>1.1513199999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.46255</v>
+      </c>
       <c r="H6" s="5">
         <v>7.7887999999999999E-2</v>
       </c>
@@ -12397,8 +12741,12 @@
       <c r="E7" s="5">
         <v>9.43885E-2</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="6">
+        <v>0.77049100000000004</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.3807400000000001</v>
+      </c>
       <c r="H7" s="5">
         <v>6.6235799999999997E-2</v>
       </c>
@@ -12434,8 +12782,12 @@
       <c r="E8" s="5">
         <v>8.5720299999999999E-2</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="6">
+        <v>1.78853</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1.15638</v>
+      </c>
       <c r="H8" s="5">
         <v>4.4081599999999999E-2</v>
       </c>
@@ -12471,9 +12823,11 @@
       <c r="E9" s="5">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>8.3483799999999997E-2</v>
+      <c r="F9" s="6">
+        <v>0.498805</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.23646300000000001</v>
       </c>
       <c r="H9" s="5">
         <v>3.4985599999999999E-2</v>
@@ -12510,11 +12864,11 @@
       <c r="E10" s="5">
         <v>6.9664699999999996E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>7.8171500000000005E-2</v>
       </c>
-      <c r="G10" s="5">
-        <v>7.2722899999999993E-2</v>
+      <c r="G10" s="6">
+        <v>11.499700000000001</v>
       </c>
       <c r="H10" s="5">
         <v>5.2345000000000003E-2</v>
@@ -12551,11 +12905,11 @@
       <c r="E11" s="5">
         <v>7.1227499999999999E-2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>8.8574100000000003E-2</v>
       </c>
-      <c r="G11" s="5">
-        <v>7.4588799999999997E-2</v>
+      <c r="G11" s="6">
+        <v>1.1096999999999999</v>
       </c>
       <c r="H11" s="5">
         <v>4.1098599999999999E-2</v>
@@ -12592,11 +12946,11 @@
       <c r="E12" s="5">
         <v>4.7799700000000001E-2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>5.9899800000000003E-2</v>
       </c>
-      <c r="G12" s="5">
-        <v>5.1606399999999997E-2</v>
+      <c r="G12" s="6">
+        <v>0.97040199999999999</v>
       </c>
       <c r="H12" s="5">
         <v>2.6132499999999999E-2</v>
@@ -12633,10 +12987,12 @@
       <c r="E13" s="5">
         <v>0.107432</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>0.134659</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="6">
+        <v>3.1572300000000002</v>
+      </c>
       <c r="H13" s="5">
         <v>5.5930899999999999E-2</v>
       </c>
@@ -12672,11 +13028,11 @@
       <c r="E14" s="5">
         <v>6.4085100000000006E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>8.2895999999999997E-2</v>
       </c>
-      <c r="G14" s="5">
-        <v>6.8496299999999996E-2</v>
+      <c r="G14" s="6">
+        <v>0.92872900000000003</v>
       </c>
       <c r="H14" s="5">
         <v>3.78106E-2</v>
@@ -12713,8 +13069,12 @@
       <c r="E15" s="5">
         <v>7.5289900000000007E-2</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="6">
+        <v>0.30723699999999998</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.42330400000000001</v>
+      </c>
       <c r="H15" s="5">
         <v>4.6927400000000001E-2</v>
       </c>
@@ -12737,80 +13097,80 @@
       <c r="R15" s="4"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
